--- a/help_others/qianqinhao/YearMean2.xlsx
+++ b/help_others/qianqinhao/YearMean2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>七八月大于35度日数</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>四到九月降水量</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>六月降水量</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -492,6 +502,12 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>650.8000000000003</v>
+      </c>
+      <c r="I2" t="n">
+        <v>181.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -515,6 +531,12 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>764.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -538,6 +560,12 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" t="n">
+        <v>521.9000000000003</v>
+      </c>
+      <c r="I4" t="n">
+        <v>171.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -561,6 +589,12 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
+      <c r="H5" t="n">
+        <v>690.6000000000003</v>
+      </c>
+      <c r="I5" t="n">
+        <v>145.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +618,12 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
+      <c r="H6" t="n">
+        <v>541.9999999999998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>144.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -607,6 +647,12 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" t="n">
+        <v>683.3000000000003</v>
+      </c>
+      <c r="I7" t="n">
+        <v>159.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -630,6 +676,12 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" t="n">
+        <v>763.0999999999998</v>
+      </c>
+      <c r="I8" t="n">
+        <v>196.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -653,6 +705,12 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" t="n">
+        <v>661.4000000000002</v>
+      </c>
+      <c r="I9" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -676,6 +734,12 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="n">
+        <v>709.4999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>68.90000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -699,6 +763,12 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="n">
+        <v>558.8999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -722,6 +792,12 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="n">
+        <v>810.1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -745,6 +821,12 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="n">
+        <v>642.0000000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>154.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -768,6 +850,12 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="n">
+        <v>652.2999999999997</v>
+      </c>
+      <c r="I14" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -791,6 +879,12 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="n">
+        <v>919.6000000000005</v>
+      </c>
+      <c r="I15" t="n">
+        <v>205.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -814,6 +908,12 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
+      <c r="H16" t="n">
+        <v>574.3000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -837,6 +937,12 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>923.5999999999998</v>
+      </c>
+      <c r="I17" t="n">
+        <v>207.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -860,6 +966,12 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
+      <c r="H18" t="n">
+        <v>573.7</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -883,6 +995,12 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>827.8999999999997</v>
+      </c>
+      <c r="I19" t="n">
+        <v>91.59999999999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -906,6 +1024,12 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>576.9000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>111.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -929,6 +1053,12 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>824.1000000000003</v>
+      </c>
+      <c r="I21" t="n">
+        <v>202.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -952,6 +1082,12 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" t="n">
+        <v>966.8000000000002</v>
+      </c>
+      <c r="I22" t="n">
+        <v>231.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -975,6 +1111,12 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
+      <c r="H23" t="n">
+        <v>805.5000000000006</v>
+      </c>
+      <c r="I23" t="n">
+        <v>197.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -998,6 +1140,12 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" t="n">
+        <v>674.8000000000005</v>
+      </c>
+      <c r="I24" t="n">
+        <v>106.1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1021,6 +1169,12 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" t="n">
+        <v>655.7000000000002</v>
+      </c>
+      <c r="I25" t="n">
+        <v>91.19999999999997</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1044,6 +1198,12 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
+      <c r="H26" t="n">
+        <v>565.9000000000003</v>
+      </c>
+      <c r="I26" t="n">
+        <v>92.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1067,6 +1227,12 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
+      <c r="H27" t="n">
+        <v>737.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1090,6 +1256,12 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
+      <c r="H28" t="n">
+        <v>719.6999999999998</v>
+      </c>
+      <c r="I28" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1113,6 +1285,12 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
+      <c r="H29" t="n">
+        <v>796.3000000000003</v>
+      </c>
+      <c r="I29" t="n">
+        <v>254.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1136,6 +1314,12 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
+      <c r="H30" t="n">
+        <v>662.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>116.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1159,6 +1343,12 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
+      <c r="H31" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>79.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1182,6 +1372,12 @@
       <c r="G32" t="n">
         <v>0</v>
       </c>
+      <c r="H32" t="n">
+        <v>683.1000000000001</v>
+      </c>
+      <c r="I32" t="n">
+        <v>180.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1205,6 +1401,12 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
+      <c r="H33" t="n">
+        <v>625.7000000000004</v>
+      </c>
+      <c r="I33" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1228,6 +1430,12 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
+      <c r="H34" t="n">
+        <v>797.0000000000002</v>
+      </c>
+      <c r="I34" t="n">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1251,6 +1459,12 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
+      <c r="H35" t="n">
+        <v>712.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>177.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1274,6 +1488,12 @@
       <c r="G36" t="n">
         <v>0</v>
       </c>
+      <c r="H36" t="n">
+        <v>737.2000000000003</v>
+      </c>
+      <c r="I36" t="n">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1297,6 +1517,12 @@
       <c r="G37" t="n">
         <v>0</v>
       </c>
+      <c r="H37" t="n">
+        <v>825.7000000000002</v>
+      </c>
+      <c r="I37" t="n">
+        <v>88.40000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1320,6 +1546,12 @@
       <c r="G38" t="n">
         <v>0</v>
       </c>
+      <c r="H38" t="n">
+        <v>701.1000000000001</v>
+      </c>
+      <c r="I38" t="n">
+        <v>66.90000000000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1343,6 +1575,12 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
+      <c r="H39" t="n">
+        <v>725.0999999999999</v>
+      </c>
+      <c r="I39" t="n">
+        <v>137.9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1366,6 +1604,12 @@
       <c r="G40" t="n">
         <v>0</v>
       </c>
+      <c r="H40" t="n">
+        <v>646.1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1389,6 +1633,12 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
+      <c r="H41" t="n">
+        <v>810.9000000000003</v>
+      </c>
+      <c r="I41" t="n">
+        <v>249.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1412,6 +1662,12 @@
       <c r="G42" t="n">
         <v>0</v>
       </c>
+      <c r="H42" t="n">
+        <v>772.6999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>136.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1435,6 +1691,12 @@
       <c r="G43" t="n">
         <v>0</v>
       </c>
+      <c r="H43" t="n">
+        <v>422.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1458,6 +1720,12 @@
       <c r="G44" t="n">
         <v>0</v>
       </c>
+      <c r="H44" t="n">
+        <v>719.6000000000003</v>
+      </c>
+      <c r="I44" t="n">
+        <v>67.59999999999999</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1481,6 +1749,12 @@
       <c r="G45" t="n">
         <v>0</v>
       </c>
+      <c r="H45" t="n">
+        <v>629.2999999999997</v>
+      </c>
+      <c r="I45" t="n">
+        <v>175.4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1504,6 +1778,12 @@
       <c r="G46" t="n">
         <v>0</v>
       </c>
+      <c r="H46" t="n">
+        <v>735.8999999999996</v>
+      </c>
+      <c r="I46" t="n">
+        <v>169.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1527,6 +1807,12 @@
       <c r="G47" t="n">
         <v>0</v>
       </c>
+      <c r="H47" t="n">
+        <v>689.5000000000003</v>
+      </c>
+      <c r="I47" t="n">
+        <v>136.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1550,6 +1836,12 @@
       <c r="G48" t="n">
         <v>0</v>
       </c>
+      <c r="H48" t="n">
+        <v>903.6999999999998</v>
+      </c>
+      <c r="I48" t="n">
+        <v>140.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1573,6 +1865,12 @@
       <c r="G49" t="n">
         <v>0</v>
       </c>
+      <c r="H49" t="n">
+        <v>770.3000000000001</v>
+      </c>
+      <c r="I49" t="n">
+        <v>264.9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1596,6 +1894,12 @@
       <c r="G50" t="n">
         <v>0</v>
       </c>
+      <c r="H50" t="n">
+        <v>1117.3</v>
+      </c>
+      <c r="I50" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1619,6 +1923,12 @@
       <c r="G51" t="n">
         <v>0</v>
       </c>
+      <c r="H51" t="n">
+        <v>616.7000000000003</v>
+      </c>
+      <c r="I51" t="n">
+        <v>121.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1642,6 +1952,12 @@
       <c r="G52" t="n">
         <v>0</v>
       </c>
+      <c r="H52" t="n">
+        <v>873.1000000000007</v>
+      </c>
+      <c r="I52" t="n">
+        <v>260.0000000000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1665,6 +1981,12 @@
       <c r="G53" t="n">
         <v>0</v>
       </c>
+      <c r="H53" t="n">
+        <v>814.8000000000001</v>
+      </c>
+      <c r="I53" t="n">
+        <v>179.2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1688,6 +2010,12 @@
       <c r="G54" t="n">
         <v>0</v>
       </c>
+      <c r="H54" t="n">
+        <v>796.4999999999995</v>
+      </c>
+      <c r="I54" t="n">
+        <v>220.2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1711,6 +2039,12 @@
       <c r="G55" t="n">
         <v>0</v>
       </c>
+      <c r="H55" t="n">
+        <v>789.9999999999998</v>
+      </c>
+      <c r="I55" t="n">
+        <v>138.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1734,6 +2068,12 @@
       <c r="G56" t="n">
         <v>0</v>
       </c>
+      <c r="H56" t="n">
+        <v>567.5000000000003</v>
+      </c>
+      <c r="I56" t="n">
+        <v>114.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1757,6 +2097,12 @@
       <c r="G57" t="n">
         <v>0</v>
       </c>
+      <c r="H57" t="n">
+        <v>586.0000000000001</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55.40000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1780,6 +2126,12 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
+      <c r="H58" t="n">
+        <v>790.2999999999996</v>
+      </c>
+      <c r="I58" t="n">
+        <v>63.90000000000001</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1803,6 +2155,12 @@
       <c r="G59" t="n">
         <v>0</v>
       </c>
+      <c r="H59" t="n">
+        <v>772.9000000000004</v>
+      </c>
+      <c r="I59" t="n">
+        <v>178.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1826,6 +2184,12 @@
       <c r="G60" t="n">
         <v>0</v>
       </c>
+      <c r="H60" t="n">
+        <v>558.8000000000002</v>
+      </c>
+      <c r="I60" t="n">
+        <v>212.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1849,6 +2213,12 @@
       <c r="G61" t="n">
         <v>0</v>
       </c>
+      <c r="H61" t="n">
+        <v>465.6000000000001</v>
+      </c>
+      <c r="I61" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1872,6 +2242,12 @@
       <c r="G62" t="n">
         <v>0</v>
       </c>
+      <c r="H62" t="n">
+        <v>490.8000000000002</v>
+      </c>
+      <c r="I62" t="n">
+        <v>80.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1895,6 +2271,12 @@
       <c r="G63" t="n">
         <v>0</v>
       </c>
+      <c r="H63" t="n">
+        <v>503.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>102.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1918,6 +2300,12 @@
       <c r="G64" t="n">
         <v>0</v>
       </c>
+      <c r="H64" t="n">
+        <v>572.0000000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>92.59999999999998</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1941,6 +2329,12 @@
       <c r="G65" t="n">
         <v>0</v>
       </c>
+      <c r="H65" t="n">
+        <v>755</v>
+      </c>
+      <c r="I65" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1964,6 +2358,12 @@
       <c r="G66" t="n">
         <v>0</v>
       </c>
+      <c r="H66" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="I66" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1987,6 +2387,12 @@
       <c r="G67" t="n">
         <v>0</v>
       </c>
+      <c r="H67" t="n">
+        <v>714</v>
+      </c>
+      <c r="I67" t="n">
+        <v>145.4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2009,6 +2415,12 @@
       </c>
       <c r="G68" t="n">
         <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>935.2999999999996</v>
+      </c>
+      <c r="I68" t="n">
+        <v>198.6</v>
       </c>
     </row>
   </sheetData>
